--- a/Integrantes y Disponibilidad.xlsx
+++ b/Integrantes y Disponibilidad.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
   <si>
     <t xml:space="preserve">Integrantes del Equipo  y Roles </t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>korinacortes73@gmail.com</t>
+  </si>
+  <si>
+    <t>Maye116/korinacortes73@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Analyst </t>
@@ -217,6 +220,12 @@
     <t xml:space="preserve"> 8 - 11 am</t>
   </si>
   <si>
+    <t>(8:am12:m)/2_5pm)</t>
+  </si>
+  <si>
+    <t>(8:am12:m)/2_4pm)</t>
+  </si>
+  <si>
     <t>Reuniones Daily: Antes de cada daily por favor llevar resueltas las preguntas, recuerden que la reunión dura sólo 15 minutos o menos. Gracias</t>
   </si>
   <si>
@@ -230,6 +239,9 @@
   </si>
   <si>
     <t>Preguntas</t>
+  </si>
+  <si>
+    <t>9:45 am</t>
   </si>
   <si>
     <t>de Martes a Viernes</t>
@@ -248,7 +260,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -272,6 +284,11 @@
       <color theme="10"/>
     </font>
     <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0563C1"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color theme="1"/>
     </font>
@@ -279,11 +296,6 @@
       <u/>
       <sz val="11.0"/>
       <color rgb="FF0563C1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color theme="10"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -304,10 +316,6 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -686,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -723,19 +731,21 @@
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -760,7 +770,7 @@
     <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="22" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -775,16 +785,16 @@
     <xf borderId="8" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="22" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -793,13 +803,10 @@
     <xf borderId="7" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="23" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -820,15 +827,17 @@
     <xf borderId="20" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="24" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="25" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="28" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="28" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="29" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -836,7 +845,7 @@
     <xf borderId="31" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="32" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="33" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="34" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="34" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="35" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1138,7 +1147,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="12"/>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1152,51 +1161,53 @@
       <c r="D8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="12"/>
-      <c r="G8" s="18"/>
+      <c r="G8" s="17" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="14" t="s">
         <v>25</v>
       </c>
+      <c r="E9" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="F9" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="22"/>
     </row>
     <row r="13">
       <c r="B13" s="23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
@@ -1218,54 +1229,54 @@
     </row>
     <row r="16">
       <c r="C16" s="29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="30"/>
       <c r="B17" s="31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="37" t="s">
-        <v>43</v>
-      </c>
       <c r="G18" s="37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" s="38"/>
       <c r="I18" s="39"/>
@@ -1275,41 +1286,41 @@
         <v>14</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="39"/>
     </row>
     <row r="20">
       <c r="B20" s="35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="36" t="s">
         <v>52</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>51</v>
       </c>
       <c r="H20" s="38"/>
       <c r="I20" s="39"/>
@@ -1319,19 +1330,19 @@
         <v>9</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G21" s="45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H21" s="38"/>
       <c r="I21" s="39"/>
@@ -1340,66 +1351,78 @@
       <c r="B22" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="50"/>
+      <c r="C22" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="48"/>
+      <c r="I22" s="49"/>
     </row>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="51" t="s">
-        <v>56</v>
+      <c r="B26" s="50" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1"/>
     <row r="28" ht="15.75" customHeight="1"/>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="52" t="s">
-        <v>57</v>
+      <c r="C29" s="51" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="56"/>
+      <c r="B30" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="55"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="57"/>
-      <c r="C31" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="60"/>
+      <c r="B31" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="59"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="61"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="59"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="63"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="66"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="65"/>
     </row>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -2370,18 +2393,18 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B13:I14"/>
     <mergeCell ref="C16:I16"/>
     <mergeCell ref="B26:F27"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E6"/>
